--- a/documents/Experiment Results/Without Window/250kbs 300ms/250kbs 300ms Summary.xlsx
+++ b/documents/Experiment Results/Without Window/250kbs 300ms/250kbs 300ms Summary.xlsx
@@ -27,10 +27,10 @@
     <t>RPS 2</t>
   </si>
   <si>
-    <t>RPS 3</t>
+    <t>RPS 5</t>
   </si>
   <si>
-    <t>RPS 4</t>
+    <t>RPS 10</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPS 3</c:v>
+                  <c:v>RPS 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -762,7 +762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPS 4</c:v>
+                  <c:v>RPS 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
